--- a/進捗管理_200706.xlsx
+++ b/進捗管理_200706.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA5A93AB-83EC-4D38-A341-A3822E6944F8}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30350200-4A1C-4BE5-84FF-43BB1E235EE8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -550,6 +550,34 @@
     <t>プログラミング（C#）の向上</t>
     <rPh sb="12" eb="14">
       <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表資料</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,7 +602,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,8 +627,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -639,7 +673,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -648,7 +697,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -663,58 +712,13 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -730,7 +734,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -740,10 +744,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -753,13 +768,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -768,36 +794,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -807,6 +807,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -814,7 +870,92 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -824,52 +965,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -879,101 +975,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1257,7 +1358,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1307,487 +1408,651 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="25" t="s">
+      <c r="Q13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="21">
         <v>44018</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="21">
         <v>44018</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="15">
         <v>50</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="10"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="47"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="B15" s="13">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="22">
         <v>44018</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="22">
         <v>44020</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="16">
         <v>50</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="4"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="48"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="13">
+      <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="22">
         <v>44018</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="22">
         <v>44020</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="16">
         <v>100</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="4"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="48"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="13">
+      <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="22">
         <v>44018</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="22">
         <v>44020</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="16">
         <v>50</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="4"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="48"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="13">
+      <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="32" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="22">
         <v>44018</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="22">
         <v>44020</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="16">
         <v>100</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="4"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="48"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="13">
+      <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="22">
         <v>44018</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="22">
         <v>44018</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="16">
         <v>100</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="4"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="48"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="13">
+      <c r="B20" s="8">
         <v>7</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="22">
         <v>44018</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="22">
         <v>44020</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="16">
         <v>100</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="4"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="48"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="13">
+      <c r="B21" s="8">
         <v>8</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="32" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="22">
         <v>44021</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="22">
         <v>44022</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="4"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="48"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="13">
+      <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="4"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="48"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="13">
+      <c r="B23" s="8">
         <v>10</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="4"/>
-    </row>
-    <row r="24" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B24" s="14">
+      <c r="D23" s="35"/>
+      <c r="E23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="48"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="28">
         <v>11</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="7"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="49"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="45"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="B25" s="44">
+        <v>12</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="48"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="8">
+        <v>13</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="48"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="8">
+        <v>14</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="48"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="48"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="48"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:22">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:22">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="48"/>
+    </row>
+    <row r="31" spans="2:22" ht="19.5" thickBot="1">
+      <c r="B31" s="8"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="48"/>
+    </row>
+    <row r="32" spans="2:22" ht="19.5" thickBot="1">
+      <c r="B32" s="9"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C23:D23"/>
@@ -1799,6 +2064,15 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,199 +2090,194 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="41"/>
+    <col min="1" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43">
+      <c r="B16" s="26"/>
+      <c r="C16" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43">
+      <c r="B17" s="26"/>
+      <c r="C17" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43">
+      <c r="B18" s="26"/>
+      <c r="C18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43">
+      <c r="B19" s="26"/>
+      <c r="C19" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43">
+      <c r="B20" s="26"/>
+      <c r="C20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43">
+      <c r="B21" s="26"/>
+      <c r="C21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
+      <c r="B22" s="26"/>
+      <c r="C22" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="42"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="23" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="23" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A16:B16"/>
@@ -2017,6 +2286,11 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/進捗管理_200706.xlsx
+++ b/進捗管理_200706.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30350200-4A1C-4BE5-84FF-43BB1E235EE8}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{319B3B95-CED9-450F-B354-C9EAA160BE2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -578,6 +578,34 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム画面レイアウト</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面レイアウト</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面レイアウト</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4日</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -961,8 +989,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -975,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1022,9 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,44 +1127,75 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1355,14 +1476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="53"/>
     <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="22" width="4.25" customWidth="1"/>
   </cols>
@@ -1411,10 +1534,10 @@
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1550,7 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="56" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1466,7 +1589,7 @@
       <c r="U13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1474,10 +1597,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1611,7 @@
       <c r="H14" s="21">
         <v>44018</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="57">
         <v>44018</v>
       </c>
       <c r="J14" s="15">
@@ -1505,16 +1628,16 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="47"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1648,7 @@
       <c r="H15" s="22">
         <v>44018</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="58">
         <v>44020</v>
       </c>
       <c r="J15" s="16">
@@ -1542,16 +1665,16 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="48"/>
+      <c r="V15" s="35"/>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
@@ -1562,10 +1685,10 @@
       <c r="H16" s="22">
         <v>44018</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="58">
         <v>44020</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="62">
         <v>100</v>
       </c>
       <c r="K16" s="12"/>
@@ -1579,16 +1702,16 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="48"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1599,7 +1722,7 @@
       <c r="H17" s="22">
         <v>44018</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="58">
         <v>44020</v>
       </c>
       <c r="J17" s="16">
@@ -1616,16 +1739,16 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="48"/>
+      <c r="V17" s="35"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1759,7 @@
       <c r="H18" s="22">
         <v>44018</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="58">
         <v>44020</v>
       </c>
       <c r="J18" s="16">
@@ -1653,16 +1776,16 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="48"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1673,7 +1796,7 @@
       <c r="H19" s="22">
         <v>44018</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="58">
         <v>44018</v>
       </c>
       <c r="J19" s="16">
@@ -1690,16 +1813,16 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="48"/>
+      <c r="V19" s="35"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="8">
         <v>7</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="18" t="s">
         <v>26</v>
       </c>
@@ -1710,7 +1833,7 @@
       <c r="H20" s="22">
         <v>44018</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="58">
         <v>44020</v>
       </c>
       <c r="J20" s="16">
@@ -1727,16 +1850,16 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="35"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="8">
         <v>8</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +1870,7 @@
       <c r="H21" s="22">
         <v>44021</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="58">
         <v>44022</v>
       </c>
       <c r="J21" s="16"/>
@@ -1762,23 +1885,29 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="35"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="35"/>
+      <c r="C22" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="58">
+        <v>44022</v>
+      </c>
+      <c r="I22" s="58">
+        <v>44026</v>
+      </c>
       <c r="J22" s="16"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1791,23 +1920,29 @@
       <c r="S22" s="13"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="48"/>
+      <c r="V22" s="35"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="8">
         <v>10</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="22">
+        <v>44021</v>
+      </c>
+      <c r="I23" s="58">
+        <v>44022</v>
+      </c>
       <c r="J23" s="16"/>
       <c r="K23" s="10"/>
       <c r="L23" s="1"/>
@@ -1816,135 +1951,173 @@
       <c r="O23" s="13"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="13"/>
+      <c r="R23" s="51"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="48"/>
+      <c r="V23" s="35"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="28">
+      <c r="B24" s="8">
         <v>11</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="27" t="s">
-        <v>23</v>
+      <c r="C24" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
+      <c r="G24" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="58">
+        <v>44025</v>
+      </c>
+      <c r="I24" s="58">
+        <v>44026</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="49"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="36"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="44">
+      <c r="B25" s="8">
         <v>12</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="C25" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="22">
+        <v>44021</v>
+      </c>
+      <c r="I25" s="58">
+        <v>44022</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="48"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="36"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="8">
         <v>13</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="C26" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="58">
+        <v>44025</v>
+      </c>
+      <c r="I26" s="58">
+        <v>44026</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="48"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="36"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="8">
         <v>14</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="8"/>
+      <c r="C27" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="22">
+        <v>44021</v>
+      </c>
+      <c r="I27" s="58">
+        <v>44026</v>
+      </c>
       <c r="J27" s="8"/>
       <c r="K27" s="10"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="48"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="35"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="8"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="8">
+        <v>15</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="58">
+        <v>44025</v>
+      </c>
+      <c r="I28" s="58">
+        <v>44028</v>
+      </c>
       <c r="J28" s="8"/>
       <c r="K28" s="10"/>
       <c r="L28" s="1"/>
@@ -1953,21 +2126,33 @@
       <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="48"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="35"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="8"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="8">
+        <v>16</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="58">
+        <v>44025</v>
+      </c>
+      <c r="I29" s="58">
+        <v>44028</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="10"/>
       <c r="L29" s="1"/>
@@ -1976,21 +2161,21 @@
       <c r="O29" s="1"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="48"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="35"/>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="8"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
@@ -2002,19 +2187,19 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="48"/>
-    </row>
-    <row r="31" spans="2:22" ht="19.5" thickBot="1">
+      <c r="U30" s="51"/>
+      <c r="V30" s="35"/>
+    </row>
+    <row r="31" spans="2:22">
       <c r="B31" s="8"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="10"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2026,44 +2211,79 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="48"/>
-    </row>
-    <row r="32" spans="2:22" ht="19.5" thickBot="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="V31" s="35"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="8"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="50"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="35"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="8"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="35"/>
+    </row>
+    <row r="34" spans="2:22" ht="19.5" thickBot="1">
+      <c r="B34" s="9"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
+  <mergeCells count="22">
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C22:D22"/>
@@ -2073,6 +2293,19 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,64 +2367,64 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="26"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="24">
         <v>1</v>
       </c>
@@ -2202,40 +2435,40 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="48"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="26"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="48"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="48"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="25"/>

--- a/進捗管理_200706.xlsx
+++ b/進捗管理_200706.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu\Documents\NervousBreakdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="11_AD4D066CA252ABDACC1048A18117E9BC73EEDF48" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{319B3B95-CED9-450F-B354-C9EAA160BE2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012606F3-2EA6-4EEE-AC58-231D097C5929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
     <sheet name="日報200706" sheetId="2" r:id="rId2"/>
+    <sheet name="日報200707" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>神経衰弱　進捗管理</t>
     <rPh sb="0" eb="4">
@@ -606,6 +607,33 @@
     <t>4日</t>
     <rPh sb="1" eb="2">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩下です。</t>
+    <rPh sb="0" eb="2">
+      <t>イワシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題点が見当たらないのでこのまま継続していきます。</t>
+    <rPh sb="0" eb="3">
+      <t>モンダイテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日:2020/07/07</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1068,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1133,43 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1195,6 +1187,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1478,14 +1509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="53"/>
+    <col min="7" max="7" width="9" style="41"/>
     <col min="10" max="10" width="7.375" customWidth="1"/>
     <col min="11" max="22" width="4.25" customWidth="1"/>
   </cols>
@@ -1534,10 +1565,10 @@
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1581,7 @@
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -1597,10 +1628,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="17" t="s">
         <v>22</v>
       </c>
@@ -1611,11 +1642,11 @@
       <c r="H14" s="21">
         <v>44018</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="45">
         <v>44018</v>
       </c>
       <c r="J14" s="15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="4"/>
@@ -1634,10 +1665,10 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1648,11 +1679,11 @@
       <c r="H15" s="22">
         <v>44018</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="46">
         <v>44020</v>
       </c>
       <c r="J15" s="16">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="13"/>
@@ -1671,10 +1702,10 @@
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
@@ -1685,10 +1716,10 @@
       <c r="H16" s="22">
         <v>44018</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="46">
         <v>44020</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="50">
         <v>100</v>
       </c>
       <c r="K16" s="12"/>
@@ -1708,10 +1739,10 @@
       <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1722,11 +1753,11 @@
       <c r="H17" s="22">
         <v>44018</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="46">
         <v>44020</v>
       </c>
       <c r="J17" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="13"/>
@@ -1745,10 +1776,10 @@
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
@@ -1759,7 +1790,7 @@
       <c r="H18" s="22">
         <v>44018</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="46">
         <v>44020</v>
       </c>
       <c r="J18" s="16">
@@ -1782,10 +1813,10 @@
       <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +1827,7 @@
       <c r="H19" s="22">
         <v>44018</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="46">
         <v>44018</v>
       </c>
       <c r="J19" s="16">
@@ -1819,10 +1850,10 @@
       <c r="B20" s="8">
         <v>7</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="18" t="s">
         <v>26</v>
       </c>
@@ -1833,7 +1864,7 @@
       <c r="H20" s="22">
         <v>44018</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="46">
         <v>44020</v>
       </c>
       <c r="J20" s="16">
@@ -1856,10 +1887,10 @@
       <c r="B21" s="8">
         <v>8</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
@@ -1870,7 +1901,7 @@
       <c r="H21" s="22">
         <v>44021</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="46">
         <v>44022</v>
       </c>
       <c r="J21" s="16"/>
@@ -1891,10 +1922,10 @@
       <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="18" t="s">
         <v>26</v>
       </c>
@@ -1902,10 +1933,10 @@
       <c r="G22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="46">
         <v>44022</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="46">
         <v>44026</v>
       </c>
       <c r="J22" s="16"/>
@@ -1926,10 +1957,10 @@
       <c r="B23" s="8">
         <v>10</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
@@ -1940,10 +1971,12 @@
       <c r="H23" s="22">
         <v>44021</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="46">
         <v>44022</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16">
+        <v>50</v>
+      </c>
       <c r="K23" s="10"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1951,7 +1984,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="51"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1961,10 +1994,10 @@
       <c r="B24" s="8">
         <v>11</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
@@ -1972,18 +2005,18 @@
       <c r="G24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="46">
         <v>44025</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="46">
         <v>44026</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="30"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="33"/>
@@ -1996,10 +2029,10 @@
       <c r="B25" s="8">
         <v>12</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="26" t="s">
         <v>23</v>
       </c>
@@ -2010,10 +2043,12 @@
       <c r="H25" s="22">
         <v>44021</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="46">
         <v>44022</v>
       </c>
-      <c r="J25" s="29"/>
+      <c r="J25" s="29">
+        <v>60</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -2021,7 +2056,7 @@
       <c r="O25" s="33"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="52"/>
+      <c r="R25" s="40"/>
       <c r="S25" s="31"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
@@ -2031,10 +2066,10 @@
       <c r="B26" s="8">
         <v>13</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="26" t="s">
         <v>23</v>
       </c>
@@ -2042,18 +2077,18 @@
       <c r="G26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="46">
         <v>44025</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="46">
         <v>44026</v>
       </c>
       <c r="J26" s="29"/>
       <c r="K26" s="30"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="33"/>
@@ -2066,10 +2101,10 @@
       <c r="B27" s="8">
         <v>14</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="20" t="s">
         <v>25</v>
       </c>
@@ -2080,10 +2115,12 @@
       <c r="H27" s="22">
         <v>44021</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="46">
         <v>44026</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="8">
+        <v>50</v>
+      </c>
       <c r="K27" s="10"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2094,17 +2131,17 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="51"/>
+      <c r="U27" s="39"/>
       <c r="V27" s="35"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="8">
         <v>15</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="20" t="s">
         <v>67</v>
       </c>
@@ -2112,10 +2149,10 @@
       <c r="G28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="46">
         <v>44025</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="46">
         <v>44028</v>
       </c>
       <c r="J28" s="8"/>
@@ -2136,10 +2173,10 @@
       <c r="B29" s="8">
         <v>16</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="20" t="s">
         <v>22</v>
       </c>
@@ -2147,10 +2184,10 @@
       <c r="G29" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="46">
         <v>44025</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="46">
         <v>44028</v>
       </c>
       <c r="J29" s="8"/>
@@ -2169,13 +2206,13 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="8"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="20"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="55"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="8"/>
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
@@ -2187,18 +2224,18 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="51"/>
+      <c r="U30" s="39"/>
       <c r="V30" s="35"/>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="8"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="20"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="55"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="8"/>
       <c r="K31" s="10"/>
       <c r="L31" s="1"/>
@@ -2215,13 +2252,13 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="8"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="20"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="55"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="27"/>
       <c r="K32" s="10"/>
       <c r="L32" s="1"/>
@@ -2238,13 +2275,13 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="8"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="20"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="55"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="8"/>
       <c r="K33" s="10"/>
       <c r="L33" s="1"/>
@@ -2261,15 +2298,15 @@
     </row>
     <row r="34" spans="2:22" ht="19.5" thickBot="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="54"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="60"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2284,15 +2321,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
@@ -2306,6 +2334,15 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC22ACF-9950-453A-8384-64F730B23F3E}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2367,64 +2404,64 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="24">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="24">
         <v>1</v>
       </c>
@@ -2435,40 +2472,40 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="63"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="48"/>
+      <c r="B26" s="63"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="63"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="63"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="63"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="63"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="25"/>
@@ -2528,4 +2565,211 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04015FE6-4732-469A-BD49-4657AF3DEEBC}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="63"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="63"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="63"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="63"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="63"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>